--- a/varianciacluster2.xlsx
+++ b/varianciacluster2.xlsx
@@ -88,13 +88,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.008008729560061961</v>
+        <v>0.008391233255530843</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00323170731675653</v>
+        <v>-0.0029694379964642506</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.801379016682479E-4</v>
+        <v>-2.6132081658440117E-4</v>
       </c>
     </row>
     <row r="3">
@@ -102,13 +102,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00323170731675653</v>
+        <v>-0.0029694379964642506</v>
       </c>
       <c r="C3" t="n">
-        <v>0.023446339040859365</v>
+        <v>0.01424606599279919</v>
       </c>
       <c r="D3" t="n">
-        <v>-9.158245269714489E-5</v>
+        <v>0.006315800171060798</v>
       </c>
     </row>
     <row r="4">
@@ -116,13 +116,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-2.801379016682479E-4</v>
+        <v>-2.6132081658440117E-4</v>
       </c>
       <c r="C4" t="n">
-        <v>-9.158245269714489E-5</v>
+        <v>0.006315800171060798</v>
       </c>
       <c r="D4" t="n">
-        <v>1.0936642536152706E-4</v>
+        <v>0.16024897566724797</v>
       </c>
     </row>
   </sheetData>
